--- a/extractions/2021-09_Voolstra-Barshis_SIFTNA_RNA_samples.xlsx
+++ b/extractions/2021-09_Voolstra-Barshis_SIFTNA_RNA_samples.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2917054de0bc48a0/Documents/Barshis_Lab/2021-June_Mote/extractions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="262" documentId="8_{7B5D08BC-71D3-4754-98B3-29FB8C376B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5CA97999-131A-4FDA-9246-CA5C245E3C3C}"/>
+  <xr:revisionPtr revIDLastSave="299" documentId="8_{7B5D08BC-71D3-4754-98B3-29FB8C376B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38C77D5A-0A88-482C-9945-E33B0CBC5ED6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2489" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2483" uniqueCount="511">
   <si>
     <t>Sample Name
 (Required)</t>
@@ -1039,9 +1039,6 @@
   </si>
   <si>
     <t>OPa-04-M-T1</t>
-  </si>
-  <si>
-    <t>OPa-05-M-T1</t>
   </si>
   <si>
     <t>OPa-01-H-T1</t>
@@ -1961,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FB18A5-DAB3-45A3-AC58-B04152AC373C}">
-  <dimension ref="A1:K398"/>
+  <dimension ref="A1:K397"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1985,7 +1982,7 @@
   <sheetData>
     <row r="1" spans="1:11" customFormat="1" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2032,7 +2029,7 @@
         <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>19</v>
@@ -2061,7 +2058,7 @@
         <v>14</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>19</v>
@@ -2090,7 +2087,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>19</v>
@@ -2119,7 +2116,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>19</v>
@@ -2148,7 +2145,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>19</v>
@@ -2177,7 +2174,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>19</v>
@@ -2206,7 +2203,7 @@
         <v>14</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>19</v>
@@ -2235,7 +2232,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>19</v>
@@ -2264,7 +2261,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>19</v>
@@ -2293,7 +2290,7 @@
         <v>14</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>19</v>
@@ -2322,7 +2319,7 @@
         <v>14</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>19</v>
@@ -2351,7 +2348,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>19</v>
@@ -2380,7 +2377,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>19</v>
@@ -2409,7 +2406,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>19</v>
@@ -2438,7 +2435,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>19</v>
@@ -2467,7 +2464,7 @@
         <v>14</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>19</v>
@@ -2496,7 +2493,7 @@
         <v>14</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>19</v>
@@ -2525,7 +2522,7 @@
         <v>14</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>19</v>
@@ -2554,7 +2551,7 @@
         <v>14</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>19</v>
@@ -2583,7 +2580,7 @@
         <v>14</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>19</v>
@@ -2612,7 +2609,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>19</v>
@@ -2641,7 +2638,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>19</v>
@@ -2670,7 +2667,7 @@
         <v>14</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>19</v>
@@ -2699,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>19</v>
@@ -2728,7 +2725,7 @@
         <v>14</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>19</v>
@@ -2757,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>19</v>
@@ -2786,7 +2783,7 @@
         <v>14</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>19</v>
@@ -2815,7 +2812,7 @@
         <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>19</v>
@@ -2844,7 +2841,7 @@
         <v>14</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>19</v>
@@ -2873,7 +2870,7 @@
         <v>14</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>19</v>
@@ -2902,7 +2899,7 @@
         <v>14</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>19</v>
@@ -2931,7 +2928,7 @@
         <v>14</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>19</v>
@@ -2960,7 +2957,7 @@
         <v>14</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>19</v>
@@ -2989,7 +2986,7 @@
         <v>14</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>19</v>
@@ -3018,7 +3015,7 @@
         <v>14</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>19</v>
@@ -3047,7 +3044,7 @@
         <v>14</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>19</v>
@@ -3076,7 +3073,7 @@
         <v>14</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>19</v>
@@ -3096,7 +3093,7 @@
         <v>246</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>13</v>
@@ -3105,7 +3102,7 @@
         <v>14</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>19</v>
@@ -3134,7 +3131,7 @@
         <v>14</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>19</v>
@@ -3163,7 +3160,7 @@
         <v>14</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>19</v>
@@ -3192,7 +3189,7 @@
         <v>14</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>19</v>
@@ -3221,7 +3218,7 @@
         <v>14</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>19</v>
@@ -3250,7 +3247,7 @@
         <v>14</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>19</v>
@@ -3279,7 +3276,7 @@
         <v>14</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>19</v>
@@ -3308,7 +3305,7 @@
         <v>14</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>19</v>
@@ -3337,7 +3334,7 @@
         <v>14</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>19</v>
@@ -3366,7 +3363,7 @@
         <v>14</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>19</v>
@@ -3395,7 +3392,7 @@
         <v>14</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>19</v>
@@ -3424,7 +3421,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>19</v>
@@ -3453,7 +3450,7 @@
         <v>14</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>19</v>
@@ -3482,7 +3479,7 @@
         <v>14</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>19</v>
@@ -3511,7 +3508,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>19</v>
@@ -3540,7 +3537,7 @@
         <v>14</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>19</v>
@@ -3569,7 +3566,7 @@
         <v>14</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>19</v>
@@ -3598,7 +3595,7 @@
         <v>14</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>19</v>
@@ -3627,7 +3624,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>19</v>
@@ -3656,7 +3653,7 @@
         <v>14</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>19</v>
@@ -3685,7 +3682,7 @@
         <v>14</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>19</v>
@@ -3714,7 +3711,7 @@
         <v>14</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>19</v>
@@ -3743,7 +3740,7 @@
         <v>14</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>19</v>
@@ -3772,7 +3769,7 @@
         <v>14</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>19</v>
@@ -3801,7 +3798,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>19</v>
@@ -3830,7 +3827,7 @@
         <v>14</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>19</v>
@@ -3859,7 +3856,7 @@
         <v>14</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>19</v>
@@ -3888,7 +3885,7 @@
         <v>14</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>19</v>
@@ -3917,7 +3914,7 @@
         <v>14</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>19</v>
@@ -3946,7 +3943,7 @@
         <v>14</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>19</v>
@@ -3975,7 +3972,7 @@
         <v>14</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>19</v>
@@ -4004,7 +4001,7 @@
         <v>14</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>19</v>
@@ -4033,7 +4030,7 @@
         <v>14</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>19</v>
@@ -4062,7 +4059,7 @@
         <v>14</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>19</v>
@@ -4091,7 +4088,7 @@
         <v>14</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>19</v>
@@ -4120,7 +4117,7 @@
         <v>14</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>19</v>
@@ -4149,7 +4146,7 @@
         <v>14</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>19</v>
@@ -4178,7 +4175,7 @@
         <v>14</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>19</v>
@@ -4207,7 +4204,7 @@
         <v>14</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>19</v>
@@ -4236,7 +4233,7 @@
         <v>14</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>19</v>
@@ -4265,7 +4262,7 @@
         <v>14</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G79" s="4" t="s">
         <v>19</v>
@@ -4294,7 +4291,7 @@
         <v>14</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>19</v>
@@ -4323,7 +4320,7 @@
         <v>14</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>19</v>
@@ -4352,7 +4349,7 @@
         <v>14</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>19</v>
@@ -4381,7 +4378,7 @@
         <v>14</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>19</v>
@@ -4410,7 +4407,7 @@
         <v>14</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>19</v>
@@ -4439,7 +4436,7 @@
         <v>14</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>19</v>
@@ -4468,7 +4465,7 @@
         <v>14</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>19</v>
@@ -4497,7 +4494,7 @@
         <v>14</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>19</v>
@@ -4526,7 +4523,7 @@
         <v>14</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>19</v>
@@ -4555,7 +4552,7 @@
         <v>14</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>19</v>
@@ -4584,7 +4581,7 @@
         <v>14</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>19</v>
@@ -4613,7 +4610,7 @@
         <v>14</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>19</v>
@@ -4642,7 +4639,7 @@
         <v>14</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G92" s="4" t="s">
         <v>19</v>
@@ -4671,7 +4668,7 @@
         <v>14</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>19</v>
@@ -4691,7 +4688,7 @@
         <v>297</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>13</v>
@@ -4700,7 +4697,7 @@
         <v>14</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>19</v>
@@ -4729,7 +4726,7 @@
         <v>14</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>19</v>
@@ -4758,7 +4755,7 @@
         <v>14</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>19</v>
@@ -4787,7 +4784,7 @@
         <v>14</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>19</v>
@@ -4816,7 +4813,7 @@
         <v>14</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>19</v>
@@ -4845,7 +4842,7 @@
         <v>14</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>19</v>
@@ -4874,7 +4871,7 @@
         <v>14</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>19</v>
@@ -4903,7 +4900,7 @@
         <v>14</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>19</v>
@@ -4932,7 +4929,7 @@
         <v>14</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>19</v>
@@ -4961,7 +4958,7 @@
         <v>14</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>19</v>
@@ -4990,7 +4987,7 @@
         <v>14</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>19</v>
@@ -5019,7 +5016,7 @@
         <v>14</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>19</v>
@@ -5048,7 +5045,7 @@
         <v>14</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>19</v>
@@ -5077,7 +5074,7 @@
         <v>14</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>19</v>
@@ -5106,7 +5103,7 @@
         <v>14</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>19</v>
@@ -5135,7 +5132,7 @@
         <v>14</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>19</v>
@@ -5164,7 +5161,7 @@
         <v>14</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>19</v>
@@ -5193,7 +5190,7 @@
         <v>14</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>19</v>
@@ -5222,7 +5219,7 @@
         <v>14</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>19</v>
@@ -5251,7 +5248,7 @@
         <v>14</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>19</v>
@@ -5280,7 +5277,7 @@
         <v>14</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>19</v>
@@ -5309,7 +5306,7 @@
         <v>14</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>19</v>
@@ -5338,7 +5335,7 @@
         <v>14</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>19</v>
@@ -5367,7 +5364,7 @@
         <v>14</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G117" s="4" t="s">
         <v>19</v>
@@ -5396,7 +5393,7 @@
         <v>14</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G118" s="4" t="s">
         <v>19</v>
@@ -5425,7 +5422,7 @@
         <v>14</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G119" s="4" t="s">
         <v>19</v>
@@ -5454,7 +5451,7 @@
         <v>14</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G120" s="4" t="s">
         <v>19</v>
@@ -5483,7 +5480,7 @@
         <v>14</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G121" s="4" t="s">
         <v>19</v>
@@ -5512,7 +5509,7 @@
         <v>14</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G122" s="4" t="s">
         <v>19</v>
@@ -5532,7 +5529,7 @@
         <v>323</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>13</v>
@@ -5541,7 +5538,7 @@
         <v>14</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>19</v>
@@ -5570,7 +5567,7 @@
         <v>14</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>19</v>
@@ -5599,7 +5596,7 @@
         <v>14</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>19</v>
@@ -5619,7 +5616,7 @@
         <v>326</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>13</v>
@@ -5628,7 +5625,7 @@
         <v>14</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>19</v>
@@ -5657,7 +5654,7 @@
         <v>14</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>19</v>
@@ -5686,7 +5683,7 @@
         <v>14</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>19</v>
@@ -5715,7 +5712,7 @@
         <v>14</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>19</v>
@@ -5744,7 +5741,7 @@
         <v>14</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G130" s="4" t="s">
         <v>19</v>
@@ -5773,7 +5770,7 @@
         <v>14</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>19</v>
@@ -5802,7 +5799,7 @@
         <v>14</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>19</v>
@@ -5831,7 +5828,7 @@
         <v>14</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>19</v>
@@ -5860,7 +5857,7 @@
         <v>14</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>19</v>
@@ -5889,7 +5886,7 @@
         <v>14</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G135" s="4" t="s">
         <v>19</v>
@@ -5909,7 +5906,7 @@
         <v>336</v>
       </c>
       <c r="B136" s="5">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>13</v>
@@ -5918,13 +5915,13 @@
         <v>14</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G136" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H136" s="5">
-        <v>18.93</v>
+        <v>47.06</v>
       </c>
       <c r="I136">
         <v>26</v>
@@ -5938,7 +5935,7 @@
         <v>337</v>
       </c>
       <c r="B137" s="5">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>13</v>
@@ -5947,16 +5944,16 @@
         <v>14</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G137" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H137" s="5">
-        <v>47.06</v>
+        <v>36.82</v>
       </c>
       <c r="I137">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J137" s="4" t="s">
         <v>17</v>
@@ -5966,8 +5963,8 @@
       <c r="A138" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B138" s="5">
-        <v>298</v>
+      <c r="B138" s="6">
+        <v>299</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>13</v>
@@ -5976,16 +5973,16 @@
         <v>14</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H138" s="5">
-        <v>36.82</v>
+        <v>16.14</v>
       </c>
       <c r="I138">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J138" s="4" t="s">
         <v>17</v>
@@ -5995,8 +5992,8 @@
       <c r="A139" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="B139" s="6">
-        <v>299</v>
+      <c r="B139" s="5">
+        <v>300</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>13</v>
@@ -6005,16 +6002,16 @@
         <v>14</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G139" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H139" s="5">
-        <v>16.14</v>
+        <v>24.91</v>
       </c>
       <c r="I139">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J139" s="4" t="s">
         <v>17</v>
@@ -6022,10 +6019,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="5" t="s">
-        <v>340</v>
+        <v>201</v>
       </c>
       <c r="B140" s="5">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>13</v>
@@ -6034,16 +6031,16 @@
         <v>14</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G140" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H140" s="5">
-        <v>24.91</v>
+        <v>19.14</v>
       </c>
       <c r="I140">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J140" s="4" t="s">
         <v>17</v>
@@ -6051,10 +6048,10 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="5" t="s">
-        <v>201</v>
+        <v>340</v>
       </c>
       <c r="B141" s="5">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>13</v>
@@ -6063,13 +6060,13 @@
         <v>14</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G141" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H141" s="5">
-        <v>19.14</v>
+        <v>22.86</v>
       </c>
       <c r="I141">
         <v>30</v>
@@ -6083,7 +6080,7 @@
         <v>341</v>
       </c>
       <c r="B142" s="5">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>13</v>
@@ -6092,16 +6089,16 @@
         <v>14</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G142" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H142" s="5">
-        <v>22.86</v>
+        <v>25.95</v>
       </c>
       <c r="I142">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J142" s="4" t="s">
         <v>17</v>
@@ -6112,7 +6109,7 @@
         <v>342</v>
       </c>
       <c r="B143" s="5">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>13</v>
@@ -6121,16 +6118,16 @@
         <v>14</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H143" s="5">
-        <v>25.95</v>
+        <v>25.25</v>
       </c>
       <c r="I143">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J143" s="4" t="s">
         <v>17</v>
@@ -6141,7 +6138,7 @@
         <v>343</v>
       </c>
       <c r="B144" s="5">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>13</v>
@@ -6150,16 +6147,16 @@
         <v>14</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H144" s="5">
-        <v>25.25</v>
+        <v>29.06</v>
       </c>
       <c r="I144">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J144" s="4" t="s">
         <v>17</v>
@@ -6170,7 +6167,7 @@
         <v>344</v>
       </c>
       <c r="B145" s="5">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>13</v>
@@ -6179,16 +6176,16 @@
         <v>14</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H145" s="5">
-        <v>29.06</v>
+        <v>75.33</v>
       </c>
       <c r="I145">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J145" s="4" t="s">
         <v>17</v>
@@ -6199,7 +6196,7 @@
         <v>345</v>
       </c>
       <c r="B146" s="5">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>13</v>
@@ -6208,16 +6205,16 @@
         <v>14</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H146" s="5">
-        <v>75.33</v>
+        <v>26.64</v>
       </c>
       <c r="I146">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J146" s="4" t="s">
         <v>17</v>
@@ -6228,7 +6225,7 @@
         <v>346</v>
       </c>
       <c r="B147" s="5">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>13</v>
@@ -6237,16 +6234,16 @@
         <v>14</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H147" s="5">
-        <v>26.64</v>
+        <v>30.86</v>
       </c>
       <c r="I147">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J147" s="4" t="s">
         <v>17</v>
@@ -6257,7 +6254,7 @@
         <v>347</v>
       </c>
       <c r="B148" s="5">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>13</v>
@@ -6266,16 +6263,16 @@
         <v>14</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H148" s="5">
-        <v>30.86</v>
+        <v>13.11</v>
       </c>
       <c r="I148">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>17</v>
@@ -6286,7 +6283,7 @@
         <v>348</v>
       </c>
       <c r="B149" s="5">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>13</v>
@@ -6295,16 +6292,16 @@
         <v>14</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H149" s="5">
-        <v>13.11</v>
+        <v>7.93</v>
       </c>
       <c r="I149">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>17</v>
@@ -6315,7 +6312,7 @@
         <v>349</v>
       </c>
       <c r="B150" s="5">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>13</v>
@@ -6324,16 +6321,16 @@
         <v>14</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H150" s="5">
-        <v>7.93</v>
+        <v>46.47</v>
       </c>
       <c r="I150">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="J150" s="4" t="s">
         <v>17</v>
@@ -6344,7 +6341,7 @@
         <v>350</v>
       </c>
       <c r="B151" s="5">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>13</v>
@@ -6353,16 +6350,16 @@
         <v>14</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H151" s="5">
-        <v>46.47</v>
+        <v>41.38</v>
       </c>
       <c r="I151">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J151" s="4" t="s">
         <v>17</v>
@@ -6373,7 +6370,7 @@
         <v>351</v>
       </c>
       <c r="B152" s="5">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>13</v>
@@ -6382,16 +6379,16 @@
         <v>14</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H152" s="5">
-        <v>41.38</v>
+        <v>44.82</v>
       </c>
       <c r="I152">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>17</v>
@@ -6399,10 +6396,10 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="5" t="s">
-        <v>352</v>
+        <v>203</v>
       </c>
       <c r="B153" s="5">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>13</v>
@@ -6411,16 +6408,16 @@
         <v>14</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H153" s="5">
-        <v>44.82</v>
+        <v>18.63</v>
       </c>
       <c r="I153">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J153" s="4" t="s">
         <v>17</v>
@@ -6428,10 +6425,10 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="B154" s="5">
-        <v>314</v>
+        <v>352</v>
+      </c>
+      <c r="B154" s="5" t="s">
+        <v>419</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>13</v>
@@ -6440,16 +6437,16 @@
         <v>14</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H154" s="5">
-        <v>18.63</v>
+        <v>14.1</v>
       </c>
       <c r="I154">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>17</v>
@@ -6459,8 +6456,8 @@
       <c r="A155" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B155" s="5" t="s">
-        <v>420</v>
+      <c r="B155" s="5">
+        <v>316</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>13</v>
@@ -6469,16 +6466,16 @@
         <v>14</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G155" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H155" s="5">
-        <v>14.1</v>
+        <v>26.81</v>
       </c>
       <c r="I155">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J155" s="4" t="s">
         <v>17</v>
@@ -6489,7 +6486,7 @@
         <v>354</v>
       </c>
       <c r="B156" s="5">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>13</v>
@@ -6498,16 +6495,16 @@
         <v>14</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G156" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H156" s="5">
-        <v>26.81</v>
+        <v>3.18</v>
       </c>
       <c r="I156">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>17</v>
@@ -6518,7 +6515,7 @@
         <v>355</v>
       </c>
       <c r="B157" s="5">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>13</v>
@@ -6527,13 +6524,13 @@
         <v>14</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G157" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H157" s="5">
-        <v>3.18</v>
+        <v>4.3</v>
       </c>
       <c r="I157">
         <v>40</v>
@@ -6547,7 +6544,7 @@
         <v>356</v>
       </c>
       <c r="B158" s="5">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>13</v>
@@ -6556,13 +6553,13 @@
         <v>14</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G158" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H158" s="5">
-        <v>4.3</v>
+        <v>1.47</v>
       </c>
       <c r="I158">
         <v>40</v>
@@ -6576,7 +6573,7 @@
         <v>357</v>
       </c>
       <c r="B159" s="5">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>13</v>
@@ -6585,13 +6582,13 @@
         <v>14</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H159" s="5">
-        <v>1.47</v>
+        <v>3.39</v>
       </c>
       <c r="I159">
         <v>40</v>
@@ -6602,10 +6599,10 @@
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="5" t="s">
-        <v>358</v>
+        <v>207</v>
       </c>
       <c r="B160" s="5">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>13</v>
@@ -6614,16 +6611,16 @@
         <v>14</v>
       </c>
       <c r="F160" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H160" s="5">
-        <v>3.39</v>
+        <v>15.52</v>
       </c>
       <c r="I160">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J160" s="4" t="s">
         <v>17</v>
@@ -6631,10 +6628,10 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="B161" s="5">
-        <v>321</v>
+        <v>358</v>
+      </c>
+      <c r="B161" s="5" t="s">
+        <v>420</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>13</v>
@@ -6643,16 +6640,16 @@
         <v>14</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H161" s="5">
-        <v>15.52</v>
+        <v>20.6</v>
       </c>
       <c r="I161">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>17</v>
@@ -6662,8 +6659,8 @@
       <c r="A162" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="B162" s="5" t="s">
-        <v>421</v>
+      <c r="B162" s="5">
+        <v>323</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>13</v>
@@ -6672,16 +6669,16 @@
         <v>14</v>
       </c>
       <c r="F162" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H162" s="5">
-        <v>20.6</v>
+        <v>44.25</v>
       </c>
       <c r="I162">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>17</v>
@@ -6692,7 +6689,7 @@
         <v>360</v>
       </c>
       <c r="B163" s="5">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>13</v>
@@ -6701,16 +6698,16 @@
         <v>14</v>
       </c>
       <c r="F163" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H163" s="5">
-        <v>44.25</v>
+        <v>31.4</v>
       </c>
       <c r="I163">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J163" s="4" t="s">
         <v>17</v>
@@ -6721,7 +6718,7 @@
         <v>361</v>
       </c>
       <c r="B164" s="5">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>13</v>
@@ -6730,16 +6727,16 @@
         <v>14</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H164" s="5">
-        <v>31.4</v>
+        <v>16.37</v>
       </c>
       <c r="I164">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>17</v>
@@ -6750,7 +6747,7 @@
         <v>362</v>
       </c>
       <c r="B165" s="5">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C165" s="4" t="s">
         <v>13</v>
@@ -6759,13 +6756,13 @@
         <v>14</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G165" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H165" s="5">
-        <v>16.37</v>
+        <v>22.69</v>
       </c>
       <c r="I165">
         <v>30</v>
@@ -6779,7 +6776,7 @@
         <v>363</v>
       </c>
       <c r="B166" s="5">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>13</v>
@@ -6788,16 +6785,16 @@
         <v>14</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H166" s="5">
-        <v>22.69</v>
+        <v>14.61</v>
       </c>
       <c r="I166">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>17</v>
@@ -6805,10 +6802,10 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="5" t="s">
-        <v>364</v>
+        <v>199</v>
       </c>
       <c r="B167" s="5">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>13</v>
@@ -6817,16 +6814,16 @@
         <v>14</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H167" s="5">
-        <v>14.61</v>
+        <v>86</v>
       </c>
       <c r="I167">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J167" s="4" t="s">
         <v>17</v>
@@ -6834,10 +6831,10 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="5" t="s">
-        <v>199</v>
+        <v>364</v>
       </c>
       <c r="B168" s="5">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C168" s="4" t="s">
         <v>13</v>
@@ -6846,16 +6843,16 @@
         <v>14</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H168" s="5">
-        <v>86</v>
+        <v>21.84</v>
       </c>
       <c r="I168">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J168" s="4" t="s">
         <v>17</v>
@@ -6866,7 +6863,7 @@
         <v>365</v>
       </c>
       <c r="B169" s="5">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>13</v>
@@ -6875,16 +6872,16 @@
         <v>14</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H169" s="5">
-        <v>21.84</v>
+        <v>22.01</v>
       </c>
       <c r="I169">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>17</v>
@@ -6895,7 +6892,7 @@
         <v>366</v>
       </c>
       <c r="B170" s="5">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>13</v>
@@ -6904,16 +6901,16 @@
         <v>14</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H170" s="5">
-        <v>22.01</v>
+        <v>55.06</v>
       </c>
       <c r="I170">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J170" s="4" t="s">
         <v>17</v>
@@ -6924,7 +6921,7 @@
         <v>367</v>
       </c>
       <c r="B171" s="5">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>13</v>
@@ -6933,16 +6930,16 @@
         <v>14</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H171" s="5">
-        <v>55.06</v>
+        <v>55.25</v>
       </c>
       <c r="I171">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>17</v>
@@ -6953,7 +6950,7 @@
         <v>368</v>
       </c>
       <c r="B172" s="5">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>13</v>
@@ -6962,16 +6959,16 @@
         <v>14</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H172" s="5">
-        <v>55.25</v>
+        <v>47.16</v>
       </c>
       <c r="I172">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J172" s="4" t="s">
         <v>17</v>
@@ -6982,7 +6979,7 @@
         <v>369</v>
       </c>
       <c r="B173" s="5">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C173" s="4" t="s">
         <v>13</v>
@@ -6991,16 +6988,16 @@
         <v>14</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G173" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H173" s="5">
-        <v>47.16</v>
+        <v>33.869999999999997</v>
       </c>
       <c r="I173">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="J173" s="4" t="s">
         <v>17</v>
@@ -7011,7 +7008,7 @@
         <v>370</v>
       </c>
       <c r="B174" s="5">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C174" s="4" t="s">
         <v>13</v>
@@ -7020,16 +7017,16 @@
         <v>14</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H174" s="5">
-        <v>33.869999999999997</v>
+        <v>13.93</v>
       </c>
       <c r="I174">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J174" s="4" t="s">
         <v>17</v>
@@ -7040,7 +7037,7 @@
         <v>371</v>
       </c>
       <c r="B175" s="5">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C175" s="4" t="s">
         <v>13</v>
@@ -7049,16 +7046,16 @@
         <v>14</v>
       </c>
       <c r="F175" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H175" s="5">
-        <v>13.93</v>
+        <v>23.43</v>
       </c>
       <c r="I175">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>17</v>
@@ -7069,7 +7066,7 @@
         <v>372</v>
       </c>
       <c r="B176" s="5">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>13</v>
@@ -7078,16 +7075,16 @@
         <v>14</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G176" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H176" s="5">
-        <v>23.43</v>
+        <v>5.95</v>
       </c>
       <c r="I176">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J176" s="4" t="s">
         <v>17</v>
@@ -7098,7 +7095,7 @@
         <v>373</v>
       </c>
       <c r="B177" s="5">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>13</v>
@@ -7107,16 +7104,16 @@
         <v>14</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G177" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H177" s="5">
-        <v>5.95</v>
+        <v>37.770000000000003</v>
       </c>
       <c r="I177">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J177" s="4" t="s">
         <v>17</v>
@@ -7127,7 +7124,7 @@
         <v>374</v>
       </c>
       <c r="B178" s="5">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>13</v>
@@ -7136,16 +7133,16 @@
         <v>14</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G178" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H178" s="5">
-        <v>37.770000000000003</v>
+        <v>2.7</v>
       </c>
       <c r="I178">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J178" s="4" t="s">
         <v>17</v>
@@ -7156,7 +7153,7 @@
         <v>375</v>
       </c>
       <c r="B179" s="5">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>13</v>
@@ -7165,16 +7162,16 @@
         <v>14</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H179" s="5">
-        <v>2.7</v>
+        <v>1.95</v>
       </c>
       <c r="I179">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J179" s="4" t="s">
         <v>17</v>
@@ -7185,7 +7182,7 @@
         <v>376</v>
       </c>
       <c r="B180" s="5">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>13</v>
@@ -7194,16 +7191,16 @@
         <v>14</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H180" s="5">
-        <v>1.95</v>
+        <v>15.85</v>
       </c>
       <c r="I180">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J180" s="4" t="s">
         <v>17</v>
@@ -7214,7 +7211,7 @@
         <v>377</v>
       </c>
       <c r="B181" s="5">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>13</v>
@@ -7223,16 +7220,16 @@
         <v>14</v>
       </c>
       <c r="F181" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H181" s="5">
-        <v>15.85</v>
+        <v>66.260000000000005</v>
       </c>
       <c r="I181">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="J181" s="4" t="s">
         <v>17</v>
@@ -7243,7 +7240,7 @@
         <v>378</v>
       </c>
       <c r="B182" s="5">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>13</v>
@@ -7252,16 +7249,16 @@
         <v>14</v>
       </c>
       <c r="F182" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H182" s="5">
-        <v>66.260000000000005</v>
+        <v>43.55</v>
       </c>
       <c r="I182">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="J182" s="4" t="s">
         <v>17</v>
@@ -7272,7 +7269,7 @@
         <v>379</v>
       </c>
       <c r="B183" s="5">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C183" s="4" t="s">
         <v>13</v>
@@ -7281,16 +7278,16 @@
         <v>14</v>
       </c>
       <c r="F183" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G183" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H183" s="5">
-        <v>43.55</v>
+        <v>34.9</v>
       </c>
       <c r="I183">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="J183" s="4" t="s">
         <v>17</v>
@@ -7301,7 +7298,7 @@
         <v>380</v>
       </c>
       <c r="B184" s="5">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>13</v>
@@ -7310,16 +7307,16 @@
         <v>14</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H184" s="5">
-        <v>34.9</v>
+        <v>27.93</v>
       </c>
       <c r="I184">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J184" s="4" t="s">
         <v>17</v>
@@ -7329,8 +7326,8 @@
       <c r="A185" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="B185" s="5">
-        <v>345</v>
+      <c r="B185" s="5" t="s">
+        <v>421</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>13</v>
@@ -7339,16 +7336,16 @@
         <v>14</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H185" s="5">
-        <v>27.93</v>
+        <v>17.8</v>
       </c>
       <c r="I185">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J185" s="4" t="s">
         <v>17</v>
@@ -7368,16 +7365,16 @@
         <v>14</v>
       </c>
       <c r="F186" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G186" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H186" s="5">
-        <v>17.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="I186">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J186" s="4" t="s">
         <v>17</v>
@@ -7397,16 +7394,16 @@
         <v>14</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H187" s="5">
-        <v>17.100000000000001</v>
+        <v>13</v>
       </c>
       <c r="I187">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J187" s="4" t="s">
         <v>17</v>
@@ -7416,8 +7413,8 @@
       <c r="A188" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="B188" s="5" t="s">
-        <v>424</v>
+      <c r="B188" s="5">
+        <v>349</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>13</v>
@@ -7426,16 +7423,16 @@
         <v>14</v>
       </c>
       <c r="F188" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H188" s="5">
-        <v>13</v>
+        <v>11.05</v>
       </c>
       <c r="I188">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J188" s="4" t="s">
         <v>17</v>
@@ -7446,7 +7443,7 @@
         <v>385</v>
       </c>
       <c r="B189" s="5">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>13</v>
@@ -7455,16 +7452,16 @@
         <v>14</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H189" s="5">
-        <v>11.05</v>
+        <v>13.16</v>
       </c>
       <c r="I189">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J189" s="4" t="s">
         <v>17</v>
@@ -7474,8 +7471,8 @@
       <c r="A190" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="B190" s="5">
-        <v>350</v>
+      <c r="B190" s="5" t="s">
+        <v>424</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>13</v>
@@ -7484,16 +7481,16 @@
         <v>14</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H190" s="5">
-        <v>13.16</v>
+        <v>15.1</v>
       </c>
       <c r="I190">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J190" s="4" t="s">
         <v>17</v>
@@ -7503,8 +7500,8 @@
       <c r="A191" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B191" s="5" t="s">
-        <v>425</v>
+      <c r="B191" s="5">
+        <v>352</v>
       </c>
       <c r="C191" s="4" t="s">
         <v>13</v>
@@ -7513,16 +7510,16 @@
         <v>14</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G191" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H191" s="5">
-        <v>15.1</v>
+        <v>6.55</v>
       </c>
       <c r="I191">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="J191" s="4" t="s">
         <v>17</v>
@@ -7533,7 +7530,7 @@
         <v>388</v>
       </c>
       <c r="B192" s="5">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C192" s="4" t="s">
         <v>13</v>
@@ -7542,16 +7539,16 @@
         <v>14</v>
       </c>
       <c r="F192" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G192" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H192" s="5">
-        <v>6.55</v>
+        <v>18.440000000000001</v>
       </c>
       <c r="I192">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J192" s="4" t="s">
         <v>17</v>
@@ -7562,7 +7559,7 @@
         <v>389</v>
       </c>
       <c r="B193" s="5">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C193" s="4" t="s">
         <v>13</v>
@@ -7571,16 +7568,16 @@
         <v>14</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G193" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H193" s="5">
-        <v>18.440000000000001</v>
+        <v>12.92</v>
       </c>
       <c r="I193">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="J193" s="4" t="s">
         <v>17</v>
@@ -7591,7 +7588,7 @@
         <v>390</v>
       </c>
       <c r="B194" s="5">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C194" s="4" t="s">
         <v>13</v>
@@ -7600,16 +7597,16 @@
         <v>14</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H194" s="5">
-        <v>12.92</v>
+        <v>2.79</v>
       </c>
       <c r="I194">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J194" s="4" t="s">
         <v>17</v>
@@ -7620,7 +7617,7 @@
         <v>391</v>
       </c>
       <c r="B195" s="5">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C195" s="4" t="s">
         <v>13</v>
@@ -7629,16 +7626,16 @@
         <v>14</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G195" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H195" s="5">
-        <v>2.79</v>
+        <v>21.94</v>
       </c>
       <c r="I195">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="J195" s="4" t="s">
         <v>17</v>
@@ -7649,7 +7646,7 @@
         <v>392</v>
       </c>
       <c r="B196" s="5">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C196" s="4" t="s">
         <v>13</v>
@@ -7658,13 +7655,13 @@
         <v>14</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G196" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H196" s="5">
-        <v>21.94</v>
+        <v>0.59</v>
       </c>
       <c r="I196">
         <v>40</v>
@@ -7678,7 +7675,7 @@
         <v>393</v>
       </c>
       <c r="B197" s="5">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>13</v>
@@ -7687,13 +7684,13 @@
         <v>14</v>
       </c>
       <c r="F197" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G197" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H197" s="5">
-        <v>0.59</v>
+        <v>10.41</v>
       </c>
       <c r="I197">
         <v>40</v>
@@ -7707,7 +7704,7 @@
         <v>394</v>
       </c>
       <c r="B198" s="5">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>13</v>
@@ -7716,13 +7713,13 @@
         <v>14</v>
       </c>
       <c r="F198" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G198" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H198" s="5">
-        <v>10.41</v>
+        <v>-0.22</v>
       </c>
       <c r="I198">
         <v>40</v>
@@ -7736,7 +7733,7 @@
         <v>395</v>
       </c>
       <c r="B199" s="5">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>13</v>
@@ -7745,13 +7742,13 @@
         <v>14</v>
       </c>
       <c r="F199" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H199" s="5">
-        <v>-0.22</v>
+        <v>1.08</v>
       </c>
       <c r="I199">
         <v>40</v>
@@ -7762,10 +7759,10 @@
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="5" t="s">
-        <v>396</v>
+        <v>210</v>
       </c>
       <c r="B200" s="5">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>13</v>
@@ -7774,13 +7771,13 @@
         <v>14</v>
       </c>
       <c r="F200" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H200" s="5">
-        <v>1.08</v>
+        <v>7.16</v>
       </c>
       <c r="I200">
         <v>40</v>
@@ -7791,10 +7788,10 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201" s="5" t="s">
-        <v>210</v>
+        <v>396</v>
       </c>
       <c r="B201" s="5">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C201" s="4" t="s">
         <v>13</v>
@@ -7803,13 +7800,13 @@
         <v>14</v>
       </c>
       <c r="F201" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G201" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H201" s="5">
-        <v>7.16</v>
+        <v>23.57</v>
       </c>
       <c r="I201">
         <v>40</v>
@@ -7822,8 +7819,8 @@
       <c r="A202" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="B202" s="5">
-        <v>362</v>
+      <c r="B202" s="5" t="s">
+        <v>425</v>
       </c>
       <c r="C202" s="4" t="s">
         <v>13</v>
@@ -7832,13 +7829,13 @@
         <v>14</v>
       </c>
       <c r="F202" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G202" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H202" s="5">
-        <v>23.57</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="I202">
         <v>40</v>
@@ -7851,8 +7848,8 @@
       <c r="A203" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B203" s="5" t="s">
-        <v>426</v>
+      <c r="B203" s="5">
+        <v>364</v>
       </c>
       <c r="C203" s="4" t="s">
         <v>13</v>
@@ -7861,13 +7858,13 @@
         <v>14</v>
       </c>
       <c r="F203" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G203" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H203" s="5">
-        <v>17.100000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="I203">
         <v>40</v>
@@ -7881,7 +7878,7 @@
         <v>399</v>
       </c>
       <c r="B204" s="5">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C204" s="4" t="s">
         <v>13</v>
@@ -7890,13 +7887,13 @@
         <v>14</v>
       </c>
       <c r="F204" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G204" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H204" s="5">
-        <v>13.6</v>
+        <v>21.2</v>
       </c>
       <c r="I204">
         <v>40</v>
@@ -7910,7 +7907,7 @@
         <v>400</v>
       </c>
       <c r="B205" s="5">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C205" s="4" t="s">
         <v>13</v>
@@ -7919,13 +7916,13 @@
         <v>14</v>
       </c>
       <c r="F205" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H205" s="5">
-        <v>21.2</v>
+        <v>24.4</v>
       </c>
       <c r="I205">
         <v>40</v>
@@ -7938,8 +7935,8 @@
       <c r="A206" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="B206" s="5">
-        <v>366</v>
+      <c r="B206" s="5" t="s">
+        <v>426</v>
       </c>
       <c r="C206" s="4" t="s">
         <v>13</v>
@@ -7948,13 +7945,13 @@
         <v>14</v>
       </c>
       <c r="F206" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H206" s="5">
-        <v>24.4</v>
+        <v>11.9</v>
       </c>
       <c r="I206">
         <v>40</v>
@@ -7967,8 +7964,8 @@
       <c r="A207" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="B207" s="5" t="s">
-        <v>427</v>
+      <c r="B207" s="5">
+        <v>368</v>
       </c>
       <c r="C207" s="4" t="s">
         <v>13</v>
@@ -7977,13 +7974,13 @@
         <v>14</v>
       </c>
       <c r="F207" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H207" s="5">
-        <v>11.9</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="I207">
         <v>40</v>
@@ -7997,7 +7994,7 @@
         <v>403</v>
       </c>
       <c r="B208" s="5">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C208" s="4" t="s">
         <v>13</v>
@@ -8006,13 +8003,13 @@
         <v>14</v>
       </c>
       <c r="F208" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G208" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H208" s="5">
-        <v>18.100000000000001</v>
+        <v>14.4</v>
       </c>
       <c r="I208">
         <v>40</v>
@@ -8026,7 +8023,7 @@
         <v>404</v>
       </c>
       <c r="B209" s="5">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C209" s="4" t="s">
         <v>13</v>
@@ -8035,13 +8032,13 @@
         <v>14</v>
       </c>
       <c r="F209" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G209" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H209" s="5">
-        <v>14.4</v>
+        <v>16</v>
       </c>
       <c r="I209">
         <v>40</v>
@@ -8055,7 +8052,7 @@
         <v>405</v>
       </c>
       <c r="B210" s="5">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C210" s="4" t="s">
         <v>13</v>
@@ -8064,13 +8061,13 @@
         <v>14</v>
       </c>
       <c r="F210" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H210" s="5">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="I210">
         <v>40</v>
@@ -8083,8 +8080,8 @@
       <c r="A211" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="B211" s="5">
-        <v>371</v>
+      <c r="B211" s="5" t="s">
+        <v>427</v>
       </c>
       <c r="C211" s="4" t="s">
         <v>13</v>
@@ -8093,13 +8090,13 @@
         <v>14</v>
       </c>
       <c r="F211" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G211" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H211" s="5">
-        <v>15.9</v>
+        <v>14</v>
       </c>
       <c r="I211">
         <v>40</v>
@@ -8110,10 +8107,10 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A212" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>428</v>
+        <v>202</v>
+      </c>
+      <c r="B212" s="5">
+        <v>373</v>
       </c>
       <c r="C212" s="4" t="s">
         <v>13</v>
@@ -8122,13 +8119,13 @@
         <v>14</v>
       </c>
       <c r="F212" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H212" s="5">
-        <v>14</v>
+        <v>22.8</v>
       </c>
       <c r="I212">
         <v>40</v>
@@ -8139,10 +8136,10 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A213" s="5" t="s">
-        <v>202</v>
+        <v>407</v>
       </c>
       <c r="B213" s="5">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C213" s="4" t="s">
         <v>13</v>
@@ -8151,13 +8148,13 @@
         <v>14</v>
       </c>
       <c r="F213" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G213" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H213" s="5">
-        <v>22.8</v>
+        <v>21.2</v>
       </c>
       <c r="I213">
         <v>40</v>
@@ -8171,7 +8168,7 @@
         <v>408</v>
       </c>
       <c r="B214" s="5">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C214" s="4" t="s">
         <v>13</v>
@@ -8180,13 +8177,13 @@
         <v>14</v>
       </c>
       <c r="F214" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G214" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H214" s="5">
-        <v>21.2</v>
+        <v>8.1</v>
       </c>
       <c r="I214">
         <v>40</v>
@@ -8200,7 +8197,7 @@
         <v>409</v>
       </c>
       <c r="B215" s="5">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C215" s="4" t="s">
         <v>13</v>
@@ -8209,13 +8206,13 @@
         <v>14</v>
       </c>
       <c r="F215" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H215" s="5">
-        <v>8.1</v>
+        <v>17.5</v>
       </c>
       <c r="I215">
         <v>40</v>
@@ -8229,7 +8226,7 @@
         <v>410</v>
       </c>
       <c r="B216" s="5">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C216" s="4" t="s">
         <v>13</v>
@@ -8238,13 +8235,13 @@
         <v>14</v>
       </c>
       <c r="F216" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H216" s="5">
-        <v>17.5</v>
+        <v>18.3</v>
       </c>
       <c r="I216">
         <v>40</v>
@@ -8258,7 +8255,7 @@
         <v>411</v>
       </c>
       <c r="B217" s="5">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C217" s="4" t="s">
         <v>13</v>
@@ -8267,13 +8264,13 @@
         <v>14</v>
       </c>
       <c r="F217" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G217" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H217" s="5">
-        <v>18.3</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="I217">
         <v>40</v>
@@ -8287,7 +8284,7 @@
         <v>412</v>
       </c>
       <c r="B218" s="5">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C218" s="4" t="s">
         <v>13</v>
@@ -8296,13 +8293,13 @@
         <v>14</v>
       </c>
       <c r="F218" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G218" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H218" s="5">
-        <v>33.700000000000003</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="I218">
         <v>40</v>
@@ -8316,7 +8313,7 @@
         <v>413</v>
       </c>
       <c r="B219" s="5">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C219" s="4" t="s">
         <v>13</v>
@@ -8325,13 +8322,13 @@
         <v>14</v>
       </c>
       <c r="F219" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G219" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H219" s="5">
-        <v>9.8000000000000007</v>
+        <v>2.5</v>
       </c>
       <c r="I219">
         <v>40</v>
@@ -8345,7 +8342,7 @@
         <v>414</v>
       </c>
       <c r="B220" s="5">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C220" s="4" t="s">
         <v>13</v>
@@ -8354,13 +8351,13 @@
         <v>14</v>
       </c>
       <c r="F220" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G220" s="4" t="s">
         <v>19</v>
       </c>
       <c r="H220" s="5">
-        <v>2.5</v>
+        <v>13.2</v>
       </c>
       <c r="I220">
         <v>40</v>
@@ -8370,11 +8367,11 @@
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="B221" s="5">
-        <v>381</v>
+      <c r="A221" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B221" s="1">
+        <v>382</v>
       </c>
       <c r="C221" s="4" t="s">
         <v>13</v>
@@ -8383,16 +8380,16 @@
         <v>14</v>
       </c>
       <c r="F221" s="5" t="s">
-        <v>429</v>
+        <v>18</v>
       </c>
       <c r="G221" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H221" s="5">
-        <v>13.2</v>
-      </c>
-      <c r="I221">
-        <v>40</v>
+      <c r="H221">
+        <v>270.06</v>
+      </c>
+      <c r="I221" s="5">
+        <v>35</v>
       </c>
       <c r="J221" s="4" t="s">
         <v>17</v>
@@ -8400,10 +8397,10 @@
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B222" s="1">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C222" s="4" t="s">
         <v>13</v>
@@ -8418,7 +8415,7 @@
         <v>19</v>
       </c>
       <c r="H222">
-        <v>270.06</v>
+        <v>574.36</v>
       </c>
       <c r="I222" s="5">
         <v>35</v>
@@ -8429,10 +8426,10 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B223" s="1">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C223" s="4" t="s">
         <v>13</v>
@@ -8447,7 +8444,7 @@
         <v>19</v>
       </c>
       <c r="H223">
-        <v>574.36</v>
+        <v>148.75</v>
       </c>
       <c r="I223" s="5">
         <v>35</v>
@@ -8458,10 +8455,10 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B224" s="1">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>13</v>
@@ -8476,7 +8473,7 @@
         <v>19</v>
       </c>
       <c r="H224">
-        <v>148.75</v>
+        <v>208.08</v>
       </c>
       <c r="I224" s="5">
         <v>35</v>
@@ -8487,10 +8484,10 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B225" s="1">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>13</v>
@@ -8505,7 +8502,7 @@
         <v>19</v>
       </c>
       <c r="H225">
-        <v>208.08</v>
+        <v>213.99</v>
       </c>
       <c r="I225" s="5">
         <v>35</v>
@@ -8516,10 +8513,10 @@
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B226" s="1">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>13</v>
@@ -8534,7 +8531,7 @@
         <v>19</v>
       </c>
       <c r="H226">
-        <v>213.99</v>
+        <v>307.7</v>
       </c>
       <c r="I226" s="5">
         <v>35</v>
@@ -8545,10 +8542,10 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B227" s="1">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>13</v>
@@ -8563,7 +8560,7 @@
         <v>19</v>
       </c>
       <c r="H227">
-        <v>307.7</v>
+        <v>146.54</v>
       </c>
       <c r="I227" s="5">
         <v>35</v>
@@ -8574,10 +8571,10 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B228" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>13</v>
@@ -8592,7 +8589,7 @@
         <v>19</v>
       </c>
       <c r="H228">
-        <v>146.54</v>
+        <v>516.08000000000004</v>
       </c>
       <c r="I228" s="5">
         <v>35</v>
@@ -8603,10 +8600,10 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B229" s="1">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>13</v>
@@ -8621,7 +8618,7 @@
         <v>19</v>
       </c>
       <c r="H229">
-        <v>516.08000000000004</v>
+        <v>349.58</v>
       </c>
       <c r="I229" s="5">
         <v>35</v>
@@ -8632,10 +8629,10 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B230" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>13</v>
@@ -8650,7 +8647,7 @@
         <v>19</v>
       </c>
       <c r="H230">
-        <v>349.58</v>
+        <v>240.15</v>
       </c>
       <c r="I230" s="5">
         <v>35</v>
@@ -8661,10 +8658,10 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B231" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>13</v>
@@ -8679,7 +8676,7 @@
         <v>19</v>
       </c>
       <c r="H231">
-        <v>240.15</v>
+        <v>263.27</v>
       </c>
       <c r="I231" s="5">
         <v>35</v>
@@ -8690,10 +8687,10 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B232" s="1">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>13</v>
@@ -8708,7 +8705,7 @@
         <v>19</v>
       </c>
       <c r="H232">
-        <v>263.27</v>
+        <v>112.71</v>
       </c>
       <c r="I232" s="5">
         <v>35</v>
@@ -8719,10 +8716,10 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B233" s="1">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>13</v>
@@ -8737,7 +8734,7 @@
         <v>19</v>
       </c>
       <c r="H233">
-        <v>112.71</v>
+        <v>470.74</v>
       </c>
       <c r="I233" s="5">
         <v>35</v>
@@ -8748,10 +8745,10 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B234" s="1">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>13</v>
@@ -8766,7 +8763,7 @@
         <v>19</v>
       </c>
       <c r="H234">
-        <v>470.74</v>
+        <v>242.75</v>
       </c>
       <c r="I234" s="5">
         <v>35</v>
@@ -8777,10 +8774,10 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B235" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>13</v>
@@ -8795,7 +8792,7 @@
         <v>19</v>
       </c>
       <c r="H235">
-        <v>242.75</v>
+        <v>124.87</v>
       </c>
       <c r="I235" s="5">
         <v>35</v>
@@ -8806,10 +8803,10 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B236" s="1">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>13</v>
@@ -8824,7 +8821,7 @@
         <v>19</v>
       </c>
       <c r="H236">
-        <v>124.87</v>
+        <v>287.17</v>
       </c>
       <c r="I236" s="5">
         <v>35</v>
@@ -8835,10 +8832,10 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B237" s="1">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>13</v>
@@ -8853,7 +8850,7 @@
         <v>19</v>
       </c>
       <c r="H237">
-        <v>287.17</v>
+        <v>303.70999999999998</v>
       </c>
       <c r="I237" s="5">
         <v>35</v>
@@ -8864,10 +8861,10 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B238" s="1">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>13</v>
@@ -8882,7 +8879,7 @@
         <v>19</v>
       </c>
       <c r="H238">
-        <v>303.70999999999998</v>
+        <v>157.86000000000001</v>
       </c>
       <c r="I238" s="5">
         <v>35</v>
@@ -8893,10 +8890,10 @@
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B239" s="1">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>13</v>
@@ -8911,7 +8908,7 @@
         <v>19</v>
       </c>
       <c r="H239">
-        <v>157.86000000000001</v>
+        <v>208.08</v>
       </c>
       <c r="I239" s="5">
         <v>35</v>
@@ -8922,10 +8919,10 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B240" s="1">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>13</v>
@@ -8940,7 +8937,7 @@
         <v>19</v>
       </c>
       <c r="H240">
-        <v>208.08</v>
+        <v>305.43</v>
       </c>
       <c r="I240" s="5">
         <v>35</v>
@@ -8951,10 +8948,10 @@
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B241" s="1">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>13</v>
@@ -8969,7 +8966,7 @@
         <v>19</v>
       </c>
       <c r="H241">
-        <v>305.43</v>
+        <v>207.86</v>
       </c>
       <c r="I241" s="5">
         <v>35</v>
@@ -8980,10 +8977,10 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B242" s="1">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>13</v>
@@ -8998,7 +8995,7 @@
         <v>19</v>
       </c>
       <c r="H242">
-        <v>207.86</v>
+        <v>182.96</v>
       </c>
       <c r="I242" s="5">
         <v>35</v>
@@ -9009,10 +9006,10 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B243" s="1">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>13</v>
@@ -9027,7 +9024,7 @@
         <v>19</v>
       </c>
       <c r="H243">
-        <v>182.96</v>
+        <v>448.14</v>
       </c>
       <c r="I243" s="5">
         <v>35</v>
@@ -9038,10 +9035,10 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B244" s="1">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>13</v>
@@ -9056,7 +9053,7 @@
         <v>19</v>
       </c>
       <c r="H244">
-        <v>448.14</v>
+        <v>292.79000000000002</v>
       </c>
       <c r="I244" s="5">
         <v>35</v>
@@ -9067,10 +9064,10 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B245" s="1">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>13</v>
@@ -9085,7 +9082,7 @@
         <v>19</v>
       </c>
       <c r="H245">
-        <v>292.79000000000002</v>
+        <v>372.44</v>
       </c>
       <c r="I245" s="5">
         <v>35</v>
@@ -9096,10 +9093,10 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B246" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>13</v>
@@ -9114,7 +9111,7 @@
         <v>19</v>
       </c>
       <c r="H246">
-        <v>372.44</v>
+        <v>29.16</v>
       </c>
       <c r="I246" s="5">
         <v>35</v>
@@ -9125,10 +9122,10 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B247" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>13</v>
@@ -9143,7 +9140,7 @@
         <v>19</v>
       </c>
       <c r="H247">
-        <v>29.16</v>
+        <v>174.95</v>
       </c>
       <c r="I247" s="5">
         <v>35</v>
@@ -9154,10 +9151,10 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A248" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B248" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>13</v>
@@ -9172,7 +9169,7 @@
         <v>19</v>
       </c>
       <c r="H248">
-        <v>174.95</v>
+        <v>85.7</v>
       </c>
       <c r="I248" s="5">
         <v>35</v>
@@ -9183,10 +9180,10 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B249" s="1">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>13</v>
@@ -9201,7 +9198,7 @@
         <v>19</v>
       </c>
       <c r="H249">
-        <v>85.7</v>
+        <v>166.36</v>
       </c>
       <c r="I249" s="5">
         <v>35</v>
@@ -9212,10 +9209,10 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B250" s="1">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>13</v>
@@ -9230,7 +9227,7 @@
         <v>19</v>
       </c>
       <c r="H250">
-        <v>166.36</v>
+        <v>364.26</v>
       </c>
       <c r="I250" s="5">
         <v>35</v>
@@ -9241,10 +9238,10 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B251" s="1">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>13</v>
@@ -9259,7 +9256,7 @@
         <v>19</v>
       </c>
       <c r="H251">
-        <v>364.26</v>
+        <v>142.33000000000001</v>
       </c>
       <c r="I251" s="5">
         <v>35</v>
@@ -9270,10 +9267,10 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B252" s="1">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>13</v>
@@ -9288,7 +9285,7 @@
         <v>19</v>
       </c>
       <c r="H252">
-        <v>142.33000000000001</v>
+        <v>376.91</v>
       </c>
       <c r="I252" s="5">
         <v>35</v>
@@ -9298,11 +9295,11 @@
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
-        <v>51</v>
+      <c r="A253" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="B253" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>13</v>
@@ -9317,7 +9314,7 @@
         <v>19</v>
       </c>
       <c r="H253">
-        <v>376.91</v>
+        <v>326.24</v>
       </c>
       <c r="I253" s="5">
         <v>35</v>
@@ -9328,10 +9325,10 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B254" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>13</v>
@@ -9346,7 +9343,7 @@
         <v>19</v>
       </c>
       <c r="H254">
-        <v>326.24</v>
+        <v>133.91999999999999</v>
       </c>
       <c r="I254" s="5">
         <v>35</v>
@@ -9357,10 +9354,10 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B255" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>13</v>
@@ -9375,7 +9372,7 @@
         <v>19</v>
       </c>
       <c r="H255">
-        <v>133.91999999999999</v>
+        <v>69.02</v>
       </c>
       <c r="I255" s="5">
         <v>35</v>
@@ -9386,10 +9383,10 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B256" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>13</v>
@@ -9404,7 +9401,7 @@
         <v>19</v>
       </c>
       <c r="H256">
-        <v>69.02</v>
+        <v>41.02</v>
       </c>
       <c r="I256" s="5">
         <v>35</v>
@@ -9415,10 +9412,10 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B257" s="1">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>13</v>
@@ -9433,7 +9430,7 @@
         <v>19</v>
       </c>
       <c r="H257">
-        <v>41.02</v>
+        <v>98.49</v>
       </c>
       <c r="I257" s="5">
         <v>35</v>
@@ -9444,10 +9441,10 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B258" s="1">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>13</v>
@@ -9462,7 +9459,7 @@
         <v>19</v>
       </c>
       <c r="H258">
-        <v>98.49</v>
+        <v>6.66</v>
       </c>
       <c r="I258" s="5">
         <v>35</v>
@@ -9473,10 +9470,10 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B259" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>13</v>
@@ -9491,7 +9488,7 @@
         <v>19</v>
       </c>
       <c r="H259">
-        <v>6.66</v>
+        <v>237.7</v>
       </c>
       <c r="I259" s="5">
         <v>35</v>
@@ -9502,10 +9499,10 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B260" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>13</v>
@@ -9520,7 +9517,7 @@
         <v>19</v>
       </c>
       <c r="H260">
-        <v>237.7</v>
+        <v>260.87</v>
       </c>
       <c r="I260" s="5">
         <v>35</v>
@@ -9531,10 +9528,10 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B261" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>13</v>
@@ -9549,7 +9546,7 @@
         <v>19</v>
       </c>
       <c r="H261">
-        <v>260.87</v>
+        <v>154.35</v>
       </c>
       <c r="I261" s="5">
         <v>35</v>
@@ -9560,10 +9557,10 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B262" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>13</v>
@@ -9578,7 +9575,7 @@
         <v>19</v>
       </c>
       <c r="H262">
-        <v>154.35</v>
+        <v>33.340000000000003</v>
       </c>
       <c r="I262" s="5">
         <v>35</v>
@@ -9589,10 +9586,10 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B263" s="1">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>13</v>
@@ -9607,7 +9604,7 @@
         <v>19</v>
       </c>
       <c r="H263">
-        <v>33.340000000000003</v>
+        <v>178.84</v>
       </c>
       <c r="I263" s="5">
         <v>35</v>
@@ -9618,10 +9615,10 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B264" s="1">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>13</v>
@@ -9636,7 +9633,7 @@
         <v>19</v>
       </c>
       <c r="H264">
-        <v>178.84</v>
+        <v>87.1</v>
       </c>
       <c r="I264" s="5">
         <v>35</v>
@@ -9647,10 +9644,10 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B265" s="1">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>13</v>
@@ -9665,7 +9662,7 @@
         <v>19</v>
       </c>
       <c r="H265">
-        <v>87.1</v>
+        <v>83.2</v>
       </c>
       <c r="I265" s="5">
         <v>35</v>
@@ -9676,10 +9673,10 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B266" s="1">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>13</v>
@@ -9694,7 +9691,7 @@
         <v>19</v>
       </c>
       <c r="H266">
-        <v>83.2</v>
+        <v>183.07</v>
       </c>
       <c r="I266" s="5">
         <v>35</v>
@@ -9705,10 +9702,10 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B267" s="1">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>13</v>
@@ -9723,7 +9720,7 @@
         <v>19</v>
       </c>
       <c r="H267">
-        <v>183.07</v>
+        <v>93.19</v>
       </c>
       <c r="I267" s="5">
         <v>35</v>
@@ -9734,10 +9731,10 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B268" s="1">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>13</v>
@@ -9752,7 +9749,7 @@
         <v>19</v>
       </c>
       <c r="H268">
-        <v>93.19</v>
+        <v>27.1</v>
       </c>
       <c r="I268" s="5">
         <v>35</v>
@@ -9763,10 +9760,10 @@
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B269" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>13</v>
@@ -9781,7 +9778,7 @@
         <v>19</v>
       </c>
       <c r="H269">
-        <v>27.1</v>
+        <v>150.79</v>
       </c>
       <c r="I269" s="5">
         <v>35</v>
@@ -9792,10 +9789,10 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B270" s="1">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>13</v>
@@ -9810,7 +9807,7 @@
         <v>19</v>
       </c>
       <c r="H270">
-        <v>150.79</v>
+        <v>131.38</v>
       </c>
       <c r="I270" s="5">
         <v>35</v>
@@ -9821,10 +9818,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B271" s="1">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>13</v>
@@ -9839,7 +9836,7 @@
         <v>19</v>
       </c>
       <c r="H271">
-        <v>131.38</v>
+        <v>204.37</v>
       </c>
       <c r="I271" s="5">
         <v>35</v>
@@ -9850,10 +9847,10 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B272" s="1">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>13</v>
@@ -9868,7 +9865,7 @@
         <v>19</v>
       </c>
       <c r="H272">
-        <v>204.37</v>
+        <v>178</v>
       </c>
       <c r="I272" s="5">
         <v>35</v>
@@ -9879,10 +9876,10 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B273" s="1">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>13</v>
@@ -9897,7 +9894,7 @@
         <v>19</v>
       </c>
       <c r="H273">
-        <v>178</v>
+        <v>92.66</v>
       </c>
       <c r="I273" s="5">
         <v>35</v>
@@ -9908,10 +9905,10 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B274" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>13</v>
@@ -9926,7 +9923,7 @@
         <v>19</v>
       </c>
       <c r="H274">
-        <v>92.66</v>
+        <v>122.98</v>
       </c>
       <c r="I274" s="5">
         <v>35</v>
@@ -9937,10 +9934,10 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B275" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>13</v>
@@ -9955,7 +9952,7 @@
         <v>19</v>
       </c>
       <c r="H275">
-        <v>122.98</v>
+        <v>28.42</v>
       </c>
       <c r="I275" s="5">
         <v>35</v>
@@ -9966,10 +9963,10 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B276" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>13</v>
@@ -9984,7 +9981,7 @@
         <v>19</v>
       </c>
       <c r="H276">
-        <v>28.42</v>
+        <v>11.06</v>
       </c>
       <c r="I276" s="5">
         <v>35</v>
@@ -9995,10 +9992,10 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B277" s="1">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>13</v>
@@ -10013,7 +10010,7 @@
         <v>19</v>
       </c>
       <c r="H277">
-        <v>11.06</v>
+        <v>29.13</v>
       </c>
       <c r="I277" s="5">
         <v>35</v>
@@ -10024,10 +10021,10 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B278" s="1">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>13</v>
@@ -10042,7 +10039,7 @@
         <v>19</v>
       </c>
       <c r="H278">
-        <v>29.13</v>
+        <v>77.010000000000005</v>
       </c>
       <c r="I278" s="5">
         <v>35</v>
@@ -10053,10 +10050,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B279" s="1">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>13</v>
@@ -10071,7 +10068,7 @@
         <v>19</v>
       </c>
       <c r="H279">
-        <v>77.010000000000005</v>
+        <v>80.849999999999994</v>
       </c>
       <c r="I279" s="5">
         <v>35</v>
@@ -10082,10 +10079,10 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B280" s="1">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>13</v>
@@ -10100,7 +10097,7 @@
         <v>19</v>
       </c>
       <c r="H280">
-        <v>80.849999999999994</v>
+        <v>118.8</v>
       </c>
       <c r="I280" s="5">
         <v>35</v>
@@ -10111,10 +10108,10 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B281" s="1">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>13</v>
@@ -10129,7 +10126,7 @@
         <v>19</v>
       </c>
       <c r="H281">
-        <v>118.8</v>
+        <v>112.7</v>
       </c>
       <c r="I281" s="5">
         <v>35</v>
@@ -10140,10 +10137,10 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B282" s="1">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>13</v>
@@ -10158,7 +10155,7 @@
         <v>19</v>
       </c>
       <c r="H282">
-        <v>112.7</v>
+        <v>40.06</v>
       </c>
       <c r="I282" s="5">
         <v>35</v>
@@ -10169,10 +10166,10 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B283" s="1">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>13</v>
@@ -10187,7 +10184,7 @@
         <v>19</v>
       </c>
       <c r="H283">
-        <v>40.06</v>
+        <v>174.14</v>
       </c>
       <c r="I283" s="5">
         <v>35</v>
@@ -10198,10 +10195,10 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B284" s="1">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>13</v>
@@ -10216,7 +10213,7 @@
         <v>19</v>
       </c>
       <c r="H284">
-        <v>174.14</v>
+        <v>128.13999999999999</v>
       </c>
       <c r="I284" s="5">
         <v>35</v>
@@ -10227,10 +10224,10 @@
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B285" s="1">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>13</v>
@@ -10245,7 +10242,7 @@
         <v>19</v>
       </c>
       <c r="H285">
-        <v>128.13999999999999</v>
+        <v>232.71</v>
       </c>
       <c r="I285" s="5">
         <v>35</v>
@@ -10256,10 +10253,10 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B286" s="1">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>13</v>
@@ -10274,7 +10271,7 @@
         <v>19</v>
       </c>
       <c r="H286">
-        <v>232.71</v>
+        <v>262.61</v>
       </c>
       <c r="I286" s="5">
         <v>35</v>
@@ -10285,10 +10282,10 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A287" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B287" s="1">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>13</v>
@@ -10303,7 +10300,7 @@
         <v>19</v>
       </c>
       <c r="H287">
-        <v>262.61</v>
+        <v>151.71</v>
       </c>
       <c r="I287" s="5">
         <v>35</v>
@@ -10314,10 +10311,10 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A288" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B288" s="1">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>13</v>
@@ -10332,7 +10329,7 @@
         <v>19</v>
       </c>
       <c r="H288">
-        <v>151.71</v>
+        <v>145.49</v>
       </c>
       <c r="I288" s="5">
         <v>35</v>
@@ -10343,10 +10340,10 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B289" s="1">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>13</v>
@@ -10361,7 +10358,7 @@
         <v>19</v>
       </c>
       <c r="H289">
-        <v>145.49</v>
+        <v>313.35000000000002</v>
       </c>
       <c r="I289" s="5">
         <v>35</v>
@@ -10372,10 +10369,10 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B290" s="1">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>13</v>
@@ -10390,7 +10387,7 @@
         <v>19</v>
       </c>
       <c r="H290">
-        <v>313.35000000000002</v>
+        <v>242.02</v>
       </c>
       <c r="I290" s="5">
         <v>35</v>
@@ -10401,10 +10398,10 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B291" s="1">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>13</v>
@@ -10419,7 +10416,7 @@
         <v>19</v>
       </c>
       <c r="H291">
-        <v>242.02</v>
+        <v>163.84</v>
       </c>
       <c r="I291" s="5">
         <v>35</v>
@@ -10430,10 +10427,10 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B292" s="1">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>13</v>
@@ -10448,7 +10445,7 @@
         <v>19</v>
       </c>
       <c r="H292">
-        <v>163.84</v>
+        <v>288.17</v>
       </c>
       <c r="I292" s="5">
         <v>35</v>
@@ -10459,10 +10456,10 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B293" s="1">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>13</v>
@@ -10477,7 +10474,7 @@
         <v>19</v>
       </c>
       <c r="H293">
-        <v>288.17</v>
+        <v>27.08</v>
       </c>
       <c r="I293" s="5">
         <v>35</v>
@@ -10488,10 +10485,10 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B294" s="1">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>13</v>
@@ -10506,7 +10503,7 @@
         <v>19</v>
       </c>
       <c r="H294">
-        <v>27.08</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="I294" s="5">
         <v>35</v>
@@ -10517,10 +10514,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B295" s="1">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>13</v>
@@ -10535,7 +10532,7 @@
         <v>19</v>
       </c>
       <c r="H295">
-        <v>10.039999999999999</v>
+        <v>9.76</v>
       </c>
       <c r="I295" s="5">
         <v>35</v>
@@ -10546,10 +10543,10 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B296" s="1">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>13</v>
@@ -10564,7 +10561,7 @@
         <v>19</v>
       </c>
       <c r="H296">
-        <v>9.76</v>
+        <v>10.44</v>
       </c>
       <c r="I296" s="5">
         <v>35</v>
@@ -10575,10 +10572,10 @@
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B297" s="1">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>13</v>
@@ -10593,7 +10590,7 @@
         <v>19</v>
       </c>
       <c r="H297">
-        <v>10.44</v>
+        <v>11.08</v>
       </c>
       <c r="I297" s="5">
         <v>35</v>
@@ -10604,10 +10601,10 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B298" s="1">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>13</v>
@@ -10622,7 +10619,7 @@
         <v>19</v>
       </c>
       <c r="H298">
-        <v>11.08</v>
+        <v>9.11</v>
       </c>
       <c r="I298" s="5">
         <v>35</v>
@@ -10633,10 +10630,10 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B299" s="1">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>13</v>
@@ -10651,7 +10648,7 @@
         <v>19</v>
       </c>
       <c r="H299">
-        <v>9.11</v>
+        <v>23.66</v>
       </c>
       <c r="I299" s="5">
         <v>35</v>
@@ -10662,10 +10659,10 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B300" s="1">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>13</v>
@@ -10680,7 +10677,7 @@
         <v>19</v>
       </c>
       <c r="H300">
-        <v>23.66</v>
+        <v>4.37</v>
       </c>
       <c r="I300" s="5">
         <v>35</v>
@@ -10691,10 +10688,10 @@
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B301" s="1">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>13</v>
@@ -10709,7 +10706,7 @@
         <v>19</v>
       </c>
       <c r="H301">
-        <v>4.37</v>
+        <v>177.84</v>
       </c>
       <c r="I301" s="5">
         <v>35</v>
@@ -10720,10 +10717,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B302" s="1">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>13</v>
@@ -10738,7 +10735,7 @@
         <v>19</v>
       </c>
       <c r="H302">
-        <v>177.84</v>
+        <v>300.37</v>
       </c>
       <c r="I302" s="5">
         <v>35</v>
@@ -10749,10 +10746,10 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B303" s="1">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>13</v>
@@ -10767,7 +10764,7 @@
         <v>19</v>
       </c>
       <c r="H303">
-        <v>300.37</v>
+        <v>228.31</v>
       </c>
       <c r="I303" s="5">
         <v>35</v>
@@ -10778,10 +10775,10 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B304" s="1">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>13</v>
@@ -10796,7 +10793,7 @@
         <v>19</v>
       </c>
       <c r="H304">
-        <v>228.31</v>
+        <v>175.84</v>
       </c>
       <c r="I304" s="5">
         <v>35</v>
@@ -10807,10 +10804,10 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B305" s="1">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>13</v>
@@ -10825,7 +10822,7 @@
         <v>19</v>
       </c>
       <c r="H305">
-        <v>175.84</v>
+        <v>187.65</v>
       </c>
       <c r="I305" s="5">
         <v>35</v>
@@ -10836,10 +10833,10 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B306" s="1">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>13</v>
@@ -10854,7 +10851,7 @@
         <v>19</v>
       </c>
       <c r="H306">
-        <v>187.65</v>
+        <v>129.86000000000001</v>
       </c>
       <c r="I306" s="5">
         <v>35</v>
@@ -10865,10 +10862,10 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B307" s="1">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>13</v>
@@ -10883,7 +10880,7 @@
         <v>19</v>
       </c>
       <c r="H307">
-        <v>129.86000000000001</v>
+        <v>153.59</v>
       </c>
       <c r="I307" s="5">
         <v>35</v>
@@ -10894,10 +10891,10 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B308" s="1">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>13</v>
@@ -10912,7 +10909,7 @@
         <v>19</v>
       </c>
       <c r="H308">
-        <v>153.59</v>
+        <v>43.85</v>
       </c>
       <c r="I308" s="5">
         <v>35</v>
@@ -10923,10 +10920,10 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B309" s="1">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>13</v>
@@ -10941,7 +10938,7 @@
         <v>19</v>
       </c>
       <c r="H309">
-        <v>43.85</v>
+        <v>284.45999999999998</v>
       </c>
       <c r="I309" s="5">
         <v>35</v>
@@ -10952,10 +10949,10 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B310" s="1">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>13</v>
@@ -10970,7 +10967,7 @@
         <v>19</v>
       </c>
       <c r="H310">
-        <v>284.45999999999998</v>
+        <v>163</v>
       </c>
       <c r="I310" s="5">
         <v>35</v>
@@ -10981,10 +10978,10 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B311" s="1">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>13</v>
@@ -10999,7 +10996,7 @@
         <v>19</v>
       </c>
       <c r="H311">
-        <v>163</v>
+        <v>238.33</v>
       </c>
       <c r="I311" s="5">
         <v>35</v>
@@ -11010,10 +11007,10 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B312" s="1">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>13</v>
@@ -11028,7 +11025,7 @@
         <v>19</v>
       </c>
       <c r="H312">
-        <v>238.33</v>
+        <v>274.38</v>
       </c>
       <c r="I312" s="5">
         <v>35</v>
@@ -11039,10 +11036,10 @@
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B313" s="1">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>13</v>
@@ -11057,7 +11054,7 @@
         <v>19</v>
       </c>
       <c r="H313">
-        <v>274.38</v>
+        <v>246.29</v>
       </c>
       <c r="I313" s="5">
         <v>35</v>
@@ -11068,10 +11065,10 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B314" s="1">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>13</v>
@@ -11086,7 +11083,7 @@
         <v>19</v>
       </c>
       <c r="H314">
-        <v>246.29</v>
+        <v>155.88999999999999</v>
       </c>
       <c r="I314" s="5">
         <v>35</v>
@@ -11097,10 +11094,10 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B315" s="1">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>13</v>
@@ -11115,7 +11112,7 @@
         <v>19</v>
       </c>
       <c r="H315">
-        <v>155.88999999999999</v>
+        <v>182.69</v>
       </c>
       <c r="I315" s="5">
         <v>35</v>
@@ -11126,10 +11123,10 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B316" s="1">
-        <v>476</v>
+        <v>115</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>429</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>13</v>
@@ -11144,7 +11141,7 @@
         <v>19</v>
       </c>
       <c r="H316">
-        <v>182.69</v>
+        <v>474.72</v>
       </c>
       <c r="I316" s="5">
         <v>35</v>
@@ -11155,7 +11152,7 @@
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>430</v>
@@ -11173,7 +11170,7 @@
         <v>19</v>
       </c>
       <c r="H317">
-        <v>474.72</v>
+        <v>332.27</v>
       </c>
       <c r="I317" s="5">
         <v>35</v>
@@ -11184,7 +11181,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>431</v>
@@ -11202,7 +11199,7 @@
         <v>19</v>
       </c>
       <c r="H318">
-        <v>332.27</v>
+        <v>178.91</v>
       </c>
       <c r="I318" s="5">
         <v>35</v>
@@ -11213,7 +11210,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>432</v>
@@ -11231,7 +11228,7 @@
         <v>19</v>
       </c>
       <c r="H319">
-        <v>178.91</v>
+        <v>364.47</v>
       </c>
       <c r="I319" s="5">
         <v>35</v>
@@ -11242,7 +11239,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>433</v>
@@ -11260,7 +11257,7 @@
         <v>19</v>
       </c>
       <c r="H320">
-        <v>364.47</v>
+        <v>336.68</v>
       </c>
       <c r="I320" s="5">
         <v>35</v>
@@ -11271,7 +11268,7 @@
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>434</v>
@@ -11289,7 +11286,7 @@
         <v>19</v>
       </c>
       <c r="H321">
-        <v>336.68</v>
+        <v>215.16</v>
       </c>
       <c r="I321" s="5">
         <v>35</v>
@@ -11300,7 +11297,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>435</v>
@@ -11318,7 +11315,7 @@
         <v>19</v>
       </c>
       <c r="H322">
-        <v>215.16</v>
+        <v>293.95999999999998</v>
       </c>
       <c r="I322" s="5">
         <v>35</v>
@@ -11329,7 +11326,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>436</v>
@@ -11347,7 +11344,7 @@
         <v>19</v>
       </c>
       <c r="H323">
-        <v>293.95999999999998</v>
+        <v>142.94999999999999</v>
       </c>
       <c r="I323" s="5">
         <v>35</v>
@@ -11358,7 +11355,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>437</v>
@@ -11376,7 +11373,7 @@
         <v>19</v>
       </c>
       <c r="H324">
-        <v>142.94999999999999</v>
+        <v>401.94</v>
       </c>
       <c r="I324" s="5">
         <v>35</v>
@@ -11387,7 +11384,7 @@
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>438</v>
@@ -11405,7 +11402,7 @@
         <v>19</v>
       </c>
       <c r="H325">
-        <v>401.94</v>
+        <v>15.38</v>
       </c>
       <c r="I325" s="5">
         <v>35</v>
@@ -11416,7 +11413,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>439</v>
@@ -11434,7 +11431,7 @@
         <v>19</v>
       </c>
       <c r="H326">
-        <v>15.38</v>
+        <v>44.81</v>
       </c>
       <c r="I326" s="5">
         <v>35</v>
@@ -11445,7 +11442,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>440</v>
@@ -11463,7 +11460,7 @@
         <v>19</v>
       </c>
       <c r="H327">
-        <v>44.81</v>
+        <v>47.25</v>
       </c>
       <c r="I327" s="5">
         <v>35</v>
@@ -11474,7 +11471,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>441</v>
@@ -11492,7 +11489,7 @@
         <v>19</v>
       </c>
       <c r="H328">
-        <v>47.25</v>
+        <v>50.81</v>
       </c>
       <c r="I328" s="5">
         <v>35</v>
@@ -11503,7 +11500,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>442</v>
@@ -11521,7 +11518,7 @@
         <v>19</v>
       </c>
       <c r="H329">
-        <v>50.81</v>
+        <v>11.11</v>
       </c>
       <c r="I329" s="5">
         <v>35</v>
@@ -11532,7 +11529,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>443</v>
@@ -11550,7 +11547,7 @@
         <v>19</v>
       </c>
       <c r="H330">
-        <v>11.11</v>
+        <v>5.71</v>
       </c>
       <c r="I330" s="5">
         <v>35</v>
@@ -11561,7 +11558,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>444</v>
@@ -11579,7 +11576,7 @@
         <v>19</v>
       </c>
       <c r="H331">
-        <v>5.71</v>
+        <v>18.02</v>
       </c>
       <c r="I331" s="5">
         <v>35</v>
@@ -11590,7 +11587,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>445</v>
@@ -11608,7 +11605,7 @@
         <v>19</v>
       </c>
       <c r="H332">
-        <v>18.02</v>
+        <v>3.84</v>
       </c>
       <c r="I332" s="5">
         <v>35</v>
@@ -11619,7 +11616,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>446</v>
@@ -11637,7 +11634,7 @@
         <v>19</v>
       </c>
       <c r="H333">
-        <v>3.84</v>
+        <v>373.78</v>
       </c>
       <c r="I333" s="5">
         <v>35</v>
@@ -11648,7 +11645,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>447</v>
@@ -11666,7 +11663,7 @@
         <v>19</v>
       </c>
       <c r="H334">
-        <v>373.78</v>
+        <v>227.83</v>
       </c>
       <c r="I334" s="5">
         <v>35</v>
@@ -11677,7 +11674,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>448</v>
@@ -11695,7 +11692,7 @@
         <v>19</v>
       </c>
       <c r="H335">
-        <v>227.83</v>
+        <v>245.63</v>
       </c>
       <c r="I335" s="5">
         <v>35</v>
@@ -11706,7 +11703,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>449</v>
@@ -11724,7 +11721,7 @@
         <v>19</v>
       </c>
       <c r="H336">
-        <v>245.63</v>
+        <v>333.45</v>
       </c>
       <c r="I336" s="5">
         <v>35</v>
@@ -11735,7 +11732,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>450</v>
@@ -11753,7 +11750,7 @@
         <v>19</v>
       </c>
       <c r="H337">
-        <v>333.45</v>
+        <v>405.33</v>
       </c>
       <c r="I337" s="5">
         <v>35</v>
@@ -11764,7 +11761,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>451</v>
@@ -11782,7 +11779,7 @@
         <v>19</v>
       </c>
       <c r="H338">
-        <v>405.33</v>
+        <v>194.63</v>
       </c>
       <c r="I338" s="5">
         <v>35</v>
@@ -11793,7 +11790,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>452</v>
@@ -11811,7 +11808,7 @@
         <v>19</v>
       </c>
       <c r="H339">
-        <v>194.63</v>
+        <v>328.17</v>
       </c>
       <c r="I339" s="5">
         <v>35</v>
@@ -11822,7 +11819,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>453</v>
@@ -11840,7 +11837,7 @@
         <v>19</v>
       </c>
       <c r="H340">
-        <v>328.17</v>
+        <v>234.24</v>
       </c>
       <c r="I340" s="5">
         <v>35</v>
@@ -11851,7 +11848,7 @@
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A341" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>454</v>
@@ -11869,7 +11866,7 @@
         <v>19</v>
       </c>
       <c r="H341">
-        <v>234.24</v>
+        <v>218.46</v>
       </c>
       <c r="I341" s="5">
         <v>35</v>
@@ -11880,7 +11877,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>455</v>
@@ -11898,7 +11895,7 @@
         <v>19</v>
       </c>
       <c r="H342">
-        <v>218.46</v>
+        <v>236.19</v>
       </c>
       <c r="I342" s="5">
         <v>35</v>
@@ -11909,7 +11906,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>456</v>
@@ -11927,7 +11924,7 @@
         <v>19</v>
       </c>
       <c r="H343">
-        <v>236.19</v>
+        <v>288.73</v>
       </c>
       <c r="I343" s="5">
         <v>35</v>
@@ -11938,7 +11935,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>457</v>
@@ -11956,7 +11953,7 @@
         <v>19</v>
       </c>
       <c r="H344">
-        <v>288.73</v>
+        <v>151.13</v>
       </c>
       <c r="I344" s="5">
         <v>35</v>
@@ -11967,7 +11964,7 @@
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>458</v>
@@ -11985,7 +11982,7 @@
         <v>19</v>
       </c>
       <c r="H345">
-        <v>151.13</v>
+        <v>165.89</v>
       </c>
       <c r="I345" s="5">
         <v>35</v>
@@ -11996,7 +11993,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>459</v>
@@ -12014,7 +12011,7 @@
         <v>19</v>
       </c>
       <c r="H346">
-        <v>165.89</v>
+        <v>308.33999999999997</v>
       </c>
       <c r="I346" s="5">
         <v>35</v>
@@ -12025,7 +12022,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>460</v>
@@ -12043,7 +12040,7 @@
         <v>19</v>
       </c>
       <c r="H347">
-        <v>308.33999999999997</v>
+        <v>168.46</v>
       </c>
       <c r="I347" s="5">
         <v>35</v>
@@ -12054,7 +12051,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>461</v>
@@ -12072,7 +12069,7 @@
         <v>19</v>
       </c>
       <c r="H348">
-        <v>168.46</v>
+        <v>255.04</v>
       </c>
       <c r="I348" s="5">
         <v>35</v>
@@ -12083,7 +12080,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>462</v>
@@ -12101,7 +12098,7 @@
         <v>19</v>
       </c>
       <c r="H349">
-        <v>255.04</v>
+        <v>188.94</v>
       </c>
       <c r="I349" s="5">
         <v>35</v>
@@ -12112,7 +12109,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>463</v>
@@ -12130,7 +12127,7 @@
         <v>19</v>
       </c>
       <c r="H350">
-        <v>188.94</v>
+        <v>190.76</v>
       </c>
       <c r="I350" s="5">
         <v>35</v>
@@ -12141,7 +12138,7 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>464</v>
@@ -12159,7 +12156,7 @@
         <v>19</v>
       </c>
       <c r="H351">
-        <v>190.76</v>
+        <v>116.9</v>
       </c>
       <c r="I351" s="5">
         <v>35</v>
@@ -12170,7 +12167,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>465</v>
@@ -12188,7 +12185,7 @@
         <v>19</v>
       </c>
       <c r="H352">
-        <v>116.9</v>
+        <v>125.68</v>
       </c>
       <c r="I352" s="5">
         <v>35</v>
@@ -12199,7 +12196,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>466</v>
@@ -12217,7 +12214,7 @@
         <v>19</v>
       </c>
       <c r="H353">
-        <v>125.68</v>
+        <v>98.28</v>
       </c>
       <c r="I353" s="5">
         <v>35</v>
@@ -12228,7 +12225,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>467</v>
@@ -12246,7 +12243,7 @@
         <v>19</v>
       </c>
       <c r="H354">
-        <v>98.28</v>
+        <v>246.89</v>
       </c>
       <c r="I354" s="5">
         <v>35</v>
@@ -12257,7 +12254,7 @@
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>468</v>
@@ -12275,7 +12272,7 @@
         <v>19</v>
       </c>
       <c r="H355">
-        <v>246.89</v>
+        <v>120.83</v>
       </c>
       <c r="I355" s="5">
         <v>35</v>
@@ -12286,7 +12283,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>469</v>
@@ -12304,7 +12301,7 @@
         <v>19</v>
       </c>
       <c r="H356">
-        <v>120.83</v>
+        <v>104.47</v>
       </c>
       <c r="I356" s="5">
         <v>35</v>
@@ -12315,7 +12312,7 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>470</v>
@@ -12333,7 +12330,7 @@
         <v>19</v>
       </c>
       <c r="H357">
-        <v>104.47</v>
+        <v>2.74</v>
       </c>
       <c r="I357" s="5">
         <v>35</v>
@@ -12344,7 +12341,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A358" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>471</v>
@@ -12362,7 +12359,7 @@
         <v>19</v>
       </c>
       <c r="H358">
-        <v>2.74</v>
+        <v>0.37</v>
       </c>
       <c r="I358" s="5">
         <v>35</v>
@@ -12373,7 +12370,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A359" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>472</v>
@@ -12391,7 +12388,7 @@
         <v>19</v>
       </c>
       <c r="H359">
-        <v>0.37</v>
+        <v>0.46</v>
       </c>
       <c r="I359" s="5">
         <v>35</v>
@@ -12402,7 +12399,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A360" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>473</v>
@@ -12420,7 +12417,7 @@
         <v>19</v>
       </c>
       <c r="H360">
-        <v>0.46</v>
+        <v>10.52</v>
       </c>
       <c r="I360" s="5">
         <v>35</v>
@@ -12431,7 +12428,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A361" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>474</v>
@@ -12449,7 +12446,7 @@
         <v>19</v>
       </c>
       <c r="H361">
-        <v>10.52</v>
+        <v>9.24</v>
       </c>
       <c r="I361" s="5">
         <v>35</v>
@@ -12460,7 +12457,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A362" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>475</v>
@@ -12478,7 +12475,7 @@
         <v>19</v>
       </c>
       <c r="H362">
-        <v>9.24</v>
+        <v>3.94</v>
       </c>
       <c r="I362" s="5">
         <v>35</v>
@@ -12489,7 +12486,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A363" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>476</v>
@@ -12507,7 +12504,7 @@
         <v>19</v>
       </c>
       <c r="H363">
-        <v>3.94</v>
+        <v>15.63</v>
       </c>
       <c r="I363" s="5">
         <v>35</v>
@@ -12518,7 +12515,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>477</v>
@@ -12536,7 +12533,7 @@
         <v>19</v>
       </c>
       <c r="H364">
-        <v>15.63</v>
+        <v>4.5599999999999996</v>
       </c>
       <c r="I364" s="5">
         <v>35</v>
@@ -12547,7 +12544,7 @@
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>478</v>
@@ -12565,7 +12562,7 @@
         <v>19</v>
       </c>
       <c r="H365">
-        <v>4.5599999999999996</v>
+        <v>442.79</v>
       </c>
       <c r="I365" s="5">
         <v>35</v>
@@ -12576,7 +12573,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A366" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>479</v>
@@ -12594,7 +12591,7 @@
         <v>19</v>
       </c>
       <c r="H366">
-        <v>442.79</v>
+        <v>386.85</v>
       </c>
       <c r="I366" s="5">
         <v>35</v>
@@ -12605,7 +12602,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A367" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>480</v>
@@ -12623,7 +12620,7 @@
         <v>19</v>
       </c>
       <c r="H367">
-        <v>386.85</v>
+        <v>335.45</v>
       </c>
       <c r="I367" s="5">
         <v>35</v>
@@ -12634,7 +12631,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A368" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>481</v>
@@ -12652,7 +12649,7 @@
         <v>19</v>
       </c>
       <c r="H368">
-        <v>335.45</v>
+        <v>195.92</v>
       </c>
       <c r="I368" s="5">
         <v>35</v>
@@ -12663,7 +12660,7 @@
     </row>
     <row r="369" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A369" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>482</v>
@@ -12681,7 +12678,7 @@
         <v>19</v>
       </c>
       <c r="H369">
-        <v>195.92</v>
+        <v>287.79000000000002</v>
       </c>
       <c r="I369" s="5">
         <v>35</v>
@@ -12692,7 +12689,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A370" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>483</v>
@@ -12710,10 +12707,10 @@
         <v>19</v>
       </c>
       <c r="H370">
-        <v>287.79000000000002</v>
+        <v>719.02</v>
       </c>
       <c r="I370" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="J370" s="4" t="s">
         <v>17</v>
@@ -12721,7 +12718,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A371" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>484</v>
@@ -12739,10 +12736,10 @@
         <v>19</v>
       </c>
       <c r="H371">
-        <v>719.02</v>
+        <v>314.5</v>
       </c>
       <c r="I371" s="5">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="J371" s="4" t="s">
         <v>17</v>
@@ -12750,7 +12747,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A372" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>485</v>
@@ -12768,7 +12765,7 @@
         <v>19</v>
       </c>
       <c r="H372">
-        <v>314.5</v>
+        <v>238.24</v>
       </c>
       <c r="I372" s="5">
         <v>35</v>
@@ -12779,7 +12776,7 @@
     </row>
     <row r="373" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A373" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>486</v>
@@ -12797,7 +12794,7 @@
         <v>19</v>
       </c>
       <c r="H373">
-        <v>238.24</v>
+        <v>231.73</v>
       </c>
       <c r="I373" s="5">
         <v>35</v>
@@ -12808,7 +12805,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A374" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>487</v>
@@ -12826,7 +12823,7 @@
         <v>19</v>
       </c>
       <c r="H374">
-        <v>231.73</v>
+        <v>273.45</v>
       </c>
       <c r="I374" s="5">
         <v>35</v>
@@ -12837,7 +12834,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A375" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>488</v>
@@ -12855,7 +12852,7 @@
         <v>19</v>
       </c>
       <c r="H375">
-        <v>273.45</v>
+        <v>232.55</v>
       </c>
       <c r="I375" s="5">
         <v>35</v>
@@ -12866,7 +12863,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A376" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>489</v>
@@ -12884,7 +12881,7 @@
         <v>19</v>
       </c>
       <c r="H376">
-        <v>232.55</v>
+        <v>250.44</v>
       </c>
       <c r="I376" s="5">
         <v>35</v>
@@ -12895,7 +12892,7 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A377" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>490</v>
@@ -12913,7 +12910,7 @@
         <v>19</v>
       </c>
       <c r="H377">
-        <v>250.44</v>
+        <v>243.6</v>
       </c>
       <c r="I377" s="5">
         <v>35</v>
@@ -12924,7 +12921,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A378" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>491</v>
@@ -12942,7 +12939,7 @@
         <v>19</v>
       </c>
       <c r="H378">
-        <v>243.6</v>
+        <v>239.02</v>
       </c>
       <c r="I378" s="5">
         <v>35</v>
@@ -12953,7 +12950,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A379" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>492</v>
@@ -12971,7 +12968,7 @@
         <v>19</v>
       </c>
       <c r="H379">
-        <v>239.02</v>
+        <v>209.72</v>
       </c>
       <c r="I379" s="5">
         <v>35</v>
@@ -12982,7 +12979,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A380" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>493</v>
@@ -13000,7 +12997,7 @@
         <v>19</v>
       </c>
       <c r="H380">
-        <v>209.72</v>
+        <v>116.79</v>
       </c>
       <c r="I380" s="5">
         <v>35</v>
@@ -13011,7 +13008,7 @@
     </row>
     <row r="381" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A381" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>494</v>
@@ -13029,7 +13026,7 @@
         <v>19</v>
       </c>
       <c r="H381">
-        <v>116.79</v>
+        <v>129.71</v>
       </c>
       <c r="I381" s="5">
         <v>35</v>
@@ -13040,7 +13037,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>495</v>
@@ -13058,7 +13055,7 @@
         <v>19</v>
       </c>
       <c r="H382">
-        <v>129.71</v>
+        <v>184.49</v>
       </c>
       <c r="I382" s="5">
         <v>35</v>
@@ -13069,7 +13066,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>496</v>
@@ -13087,7 +13084,7 @@
         <v>19</v>
       </c>
       <c r="H383">
-        <v>184.49</v>
+        <v>131.65</v>
       </c>
       <c r="I383" s="5">
         <v>35</v>
@@ -13098,7 +13095,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A384" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>497</v>
@@ -13116,7 +13113,7 @@
         <v>19</v>
       </c>
       <c r="H384">
-        <v>131.65</v>
+        <v>93.85</v>
       </c>
       <c r="I384" s="5">
         <v>35</v>
@@ -13127,7 +13124,7 @@
     </row>
     <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>498</v>
@@ -13145,7 +13142,7 @@
         <v>19</v>
       </c>
       <c r="H385">
-        <v>93.85</v>
+        <v>15.17</v>
       </c>
       <c r="I385" s="5">
         <v>35</v>
@@ -13156,7 +13153,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>499</v>
@@ -13174,7 +13171,7 @@
         <v>19</v>
       </c>
       <c r="H386">
-        <v>15.17</v>
+        <v>34.06</v>
       </c>
       <c r="I386" s="5">
         <v>35</v>
@@ -13185,7 +13182,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>500</v>
@@ -13203,7 +13200,7 @@
         <v>19</v>
       </c>
       <c r="H387">
-        <v>34.06</v>
+        <v>27.91</v>
       </c>
       <c r="I387" s="5">
         <v>35</v>
@@ -13214,7 +13211,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>501</v>
@@ -13232,7 +13229,7 @@
         <v>19</v>
       </c>
       <c r="H388">
-        <v>27.91</v>
+        <v>169.74</v>
       </c>
       <c r="I388" s="5">
         <v>35</v>
@@ -13243,7 +13240,7 @@
     </row>
     <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>502</v>
@@ -13261,7 +13258,7 @@
         <v>19</v>
       </c>
       <c r="H389">
-        <v>169.74</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="I389" s="5">
         <v>35</v>
@@ -13272,7 +13269,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>503</v>
@@ -13290,7 +13287,7 @@
         <v>19</v>
       </c>
       <c r="H390">
-        <v>8.2899999999999991</v>
+        <v>23.47</v>
       </c>
       <c r="I390" s="5">
         <v>35</v>
@@ -13301,7 +13298,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>504</v>
@@ -13319,7 +13316,7 @@
         <v>19</v>
       </c>
       <c r="H391">
-        <v>23.47</v>
+        <v>14.6</v>
       </c>
       <c r="I391" s="5">
         <v>35</v>
@@ -13330,7 +13327,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>505</v>
@@ -13348,7 +13345,7 @@
         <v>19</v>
       </c>
       <c r="H392">
-        <v>14.6</v>
+        <v>22.36</v>
       </c>
       <c r="I392" s="5">
         <v>35</v>
@@ -13359,7 +13356,7 @@
     </row>
     <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>506</v>
@@ -13377,7 +13374,7 @@
         <v>19</v>
       </c>
       <c r="H393">
-        <v>22.36</v>
+        <v>5.2</v>
       </c>
       <c r="I393" s="5">
         <v>35</v>
@@ -13388,7 +13385,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>507</v>
@@ -13406,7 +13403,7 @@
         <v>19</v>
       </c>
       <c r="H394">
-        <v>5.2</v>
+        <v>11.39</v>
       </c>
       <c r="I394" s="5">
         <v>35</v>
@@ -13417,7 +13414,7 @@
     </row>
     <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>508</v>
@@ -13435,7 +13432,7 @@
         <v>19</v>
       </c>
       <c r="H395">
-        <v>11.39</v>
+        <v>11.63</v>
       </c>
       <c r="I395" s="5">
         <v>35</v>
@@ -13446,7 +13443,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>509</v>
@@ -13464,7 +13461,7 @@
         <v>19</v>
       </c>
       <c r="H396">
-        <v>11.63</v>
+        <v>16.53</v>
       </c>
       <c r="I396" s="5">
         <v>35</v>
@@ -13474,36 +13471,7 @@
       </c>
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A397" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B397" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="C397" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E397" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F397" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G397" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H397">
-        <v>16.53</v>
-      </c>
-      <c r="I397" s="5">
-        <v>35</v>
-      </c>
-      <c r="J397" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H398"/>
+      <c r="H397"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -13515,19 +13483,19 @@
           <x14:formula1>
             <xm:f>hiddenSheet1!$A$1:$A$65535</xm:f>
           </x14:formula1>
-          <xm:sqref>C2:C65536</xm:sqref>
+          <xm:sqref>C2:C65535</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tips" error="Please select the specified data" xr:uid="{E5B6085E-FB99-44A2-BB61-6243CC0E7615}">
           <x14:formula1>
             <xm:f>hiddenSheet3!$A$1:$A$65535</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E65536</xm:sqref>
+          <xm:sqref>E2:E65535</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Tips" error="Please select the specified data" xr:uid="{103D1B96-9B61-429E-AC34-35A88CD01BD5}">
           <x14:formula1>
             <xm:f>hiddenSheet8!$A$1:$A$65535</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J65536</xm:sqref>
+          <xm:sqref>J2:J65535</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
